--- a/ConsumerGoods.xlsx
+++ b/ConsumerGoods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BBE547-42E7-47E0-89D6-32DEAFC85C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA605AE-1F7F-4AD4-8D4B-45BB037B0B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" activeTab="3" xr2:uid="{C5F9E374-3D8E-42B5-B067-E68CE63456D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{C5F9E374-3D8E-42B5-B067-E68CE63456D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4244,8 +4244,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4312,14 +4312,14 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>68080.5</v>
+            <v>73427.31</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4799,26 +4799,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>29.41</v>
+            <v>26.72</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>35561.833632540001</v>
+            <v>31624.244938719999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>1284</v>
+            <v>2113</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>20091</v>
+            <v>21603</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5865,8 +5865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105F34CF-7B93-4C80-9712-0C74998FDC34}">
   <dimension ref="A1:AG348"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6291,19 +6291,19 @@
       </c>
       <c r="E13" s="6">
         <f>+[8]Main!$H$2</f>
-        <v>29.41</v>
+        <v>26.72</v>
       </c>
       <c r="F13" s="4">
         <f>+[8]Main!$H$4</f>
-        <v>35561.833632540001</v>
+        <v>31624.244938719999</v>
       </c>
       <c r="G13" s="4">
         <f>+[8]Main!$H$6-[8]Main!$H$5</f>
-        <v>18807</v>
+        <v>19490</v>
       </c>
       <c r="H13" s="4">
         <f>+F13+G13</f>
-        <v>54368.833632540001</v>
+        <v>51114.244938720003</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>24</v>
@@ -14189,7 +14189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FA7BB8-7A2E-4B85-93E6-DA813B931E82}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -14281,7 +14281,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="18">
         <f>SUM(F5:F23)</f>
-        <v>623331.96957860852</v>
+        <v>630175.88637860853</v>
       </c>
       <c r="G4" s="18">
         <f>SUM(G5:G23)</f>
@@ -14289,7 +14289,7 @@
       </c>
       <c r="H4" s="18">
         <f>SUM(H5:H23)</f>
-        <v>713726.60045660869</v>
+        <v>720570.5172566087</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="F7" s="4">
         <f>+[20]Main!$H$5*FX!C3</f>
-        <v>87143.040000000008</v>
+        <v>93986.9568</v>
       </c>
       <c r="G7" s="4">
         <f>+([19]Main!$M$7-[19]Main!$M$6)*FX!C3</f>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="H7" s="4">
         <f>F7+G7</f>
-        <v>114449.28000000001</v>
+        <v>121293.19680000001</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>732</v>

--- a/ConsumerGoods.xlsx
+++ b/ConsumerGoods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F62F615-BB7C-48EC-8C95-4DD69C5C33A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0876E0-69D3-484B-B10B-33CAADAE179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4290" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{C5F9E374-3D8E-42B5-B067-E68CE63456D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{C5F9E374-3D8E-42B5-B067-E68CE63456D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,11 @@
     <externalReference r:id="rId34"/>
     <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
+    <externalReference r:id="rId37"/>
+    <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
+    <externalReference r:id="rId40"/>
+    <externalReference r:id="rId41"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -132,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1170">
   <si>
     <t>Consumer Goods</t>
   </si>
@@ -3636,6 +3641,12 @@
   </si>
   <si>
     <t>MOWI.OL</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -3885,6 +3896,45 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="J2">
+            <v>52.07</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>28244.199404300001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>363.9</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>14201.6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
           <cell r="I2">
             <v>81.52</v>
           </cell>
@@ -3911,7 +3961,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -3950,7 +4000,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -3989,7 +4039,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4028,7 +4078,163 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>451.49</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>15459.684450730001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>304.32</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>4975.759</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>164.28</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>16076.2140936</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>285.66300000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>8.2520000000000007</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>190.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>98509.662835499999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>200.3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>2094.9</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>137.83000000000001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>5880.7446451600008</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>312.92099999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>246.94499999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4067,7 +4273,46 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="H2">
+            <v>296.01</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>211656.83751926999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>1238</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>38925</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4106,7 +4351,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4125,22 +4370,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>74.5</v>
+            <v>92.6</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>507.53855100000004</v>
+            <v>630.84657479999998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>110.736</v>
+            <v>110.125</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>16.056000000000001</v>
+            <v>14.090999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -4155,7 +4400,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4194,7 +4439,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4233,7 +4478,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4272,46 +4517,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="H2">
-            <v>281</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>201370.13176600001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>1221</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>39586</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4350,7 +4556,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4393,7 +4599,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4434,7 +4640,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4469,7 +4675,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4499,201 +4705,6 @@
         <row r="6">
           <cell r="H6">
             <v>26.78</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financials"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2">
-            <v>4080</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>7244589.7719575036</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>1098839</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>1227407</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financials"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>25.6</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>22246.400000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1078</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>8797</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financials"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>107400</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>12361328.658</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1406213</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>638981</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>590</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>68627665.371000007</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>2695159</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>76771</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="I3">
-            <v>69.63</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1232.2425974099999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>33.557000000000002</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="I7">
-            <v>248.28200000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -4748,6 +4759,201 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Financials"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>4080</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>7244589.7719575036</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>1098839</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>1227407</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financials"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>25.6</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>22246.400000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1078</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>8797</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financials"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>107400</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>12361328.658</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1406213</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>638981</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>590</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>68627665.371000007</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>2695159</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>76771</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>69.63</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1232.2425974099999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>33.557000000000002</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="I7">
+            <v>248.28200000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
@@ -4779,7 +4985,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4793,22 +4999,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>190.5</v>
+            <v>164.97</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>98509.662835499999</v>
+            <v>33423.547236300001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>200.3</v>
+            <v>1515.252</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>2094.9</v>
+            <v>5925.4940000000006</v>
           </cell>
         </row>
       </sheetData>
@@ -4832,22 +5038,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>57.8</v>
+            <v>68.88</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>77289.827881199992</v>
+            <v>89186.882892239984</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>1517</v>
+            <v>1561</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>19804</v>
+            <v>17624</v>
           </cell>
         </row>
       </sheetData>
@@ -6048,8 +6254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105F34CF-7B93-4C80-9712-0C74998FDC34}">
   <dimension ref="A1:AG374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6198,22 +6404,22 @@
       </c>
       <c r="E5" s="6">
         <f>+[2]Main!$H$2</f>
-        <v>281</v>
+        <v>296.01</v>
       </c>
       <c r="F5" s="4">
         <f>+[2]Main!$H$4</f>
-        <v>201370.13176600001</v>
+        <v>211656.83751926999</v>
       </c>
       <c r="G5" s="4">
         <f>+[2]Main!$H$6-[2]Main!$H$5</f>
-        <v>38365</v>
+        <v>37687</v>
       </c>
       <c r="H5" s="4">
         <f>+F5+G5</f>
-        <v>239735.13176600001</v>
+        <v>249343.83751926999</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>24</v>
+        <v>491</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -6278,22 +6484,22 @@
       </c>
       <c r="E7" s="6">
         <f>+[4]Main!$H$2</f>
-        <v>57.8</v>
+        <v>68.88</v>
       </c>
       <c r="F7" s="4">
         <f>+[4]Main!$H$4</f>
-        <v>77289.827881199992</v>
+        <v>89186.882892239984</v>
       </c>
       <c r="G7" s="4">
         <f>+[4]Main!$H$6-[4]Main!$H$5</f>
-        <v>18287</v>
+        <v>16063</v>
       </c>
       <c r="H7" s="4">
         <f>+F7+G7</f>
-        <v>95576.827881199992</v>
+        <v>105249.88289223998</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>24</v>
+        <v>491</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -6543,7 +6749,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C15" t="s">
@@ -6552,10 +6758,25 @@
       <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="E15" s="6">
+        <f>+[10]Main!$J$2</f>
+        <v>52.07</v>
+      </c>
+      <c r="F15" s="4">
+        <f>+[10]Main!$J$4</f>
+        <v>28244.199404300001</v>
+      </c>
+      <c r="G15" s="4">
+        <f>+[10]Main!$J$6-[10]Main!$J$5</f>
+        <v>13837.7</v>
+      </c>
+      <c r="H15" s="4">
+        <f>+F15+G15</f>
+        <v>42081.899404299998</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>1168</v>
+      </c>
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -6563,7 +6784,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C16" t="s">
@@ -6572,10 +6793,25 @@
       <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="E16" s="6">
+        <f>+[36]Main!$J$2</f>
+        <v>164.97</v>
+      </c>
+      <c r="F16" s="4">
+        <f>+[36]Main!$J$4</f>
+        <v>33423.547236300001</v>
+      </c>
+      <c r="G16" s="4">
+        <f>+[36]Main!$J$6-[36]Main!$J$5</f>
+        <v>4410.2420000000002</v>
+      </c>
+      <c r="H16" s="4">
+        <f>+F16+G16</f>
+        <v>37833.789236299999</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -6693,15 +6929,15 @@
         <v>27</v>
       </c>
       <c r="E22" s="6">
-        <f>+[10]Main!$I$2</f>
+        <f>+[11]Main!$I$2</f>
         <v>81.52</v>
       </c>
       <c r="F22" s="4">
-        <f>+[10]Main!$I$4</f>
+        <f>+[11]Main!$I$4</f>
         <v>28099.772318880001</v>
       </c>
       <c r="G22" s="4">
-        <f>+[10]Main!$I$6-[10]Main!$I$5</f>
+        <f>+[11]Main!$I$6-[11]Main!$I$5</f>
         <v>5160</v>
       </c>
       <c r="H22" s="4">
@@ -6798,15 +7034,15 @@
         <v>27</v>
       </c>
       <c r="E26" s="6">
-        <f>+[11]Main!$I$2</f>
+        <f>+[12]Main!$I$2</f>
         <v>51.28</v>
       </c>
       <c r="F26" s="4">
-        <f>+[11]Main!$I$4</f>
+        <f>+[12]Main!$I$4</f>
         <v>24539.198905600002</v>
       </c>
       <c r="G26" s="4">
-        <f>+[11]Main!$I$6-[11]Main!$I$5</f>
+        <f>+[12]Main!$I$6-[12]Main!$I$5</f>
         <v>1450</v>
       </c>
       <c r="H26" s="4">
@@ -6900,15 +7136,15 @@
         <v>27</v>
       </c>
       <c r="E30" s="6">
-        <f>+[12]Main!$J$2</f>
+        <f>+[13]Main!$J$2</f>
         <v>76.930000000000007</v>
       </c>
       <c r="F30" s="4">
-        <f>+[12]Main!$J$4</f>
+        <f>+[13]Main!$J$4</f>
         <v>20629.107760310002</v>
       </c>
       <c r="G30" s="4">
-        <f>+[12]Main!$J$6-[12]Main!$J$5</f>
+        <f>+[13]Main!$J$6-[13]Main!$J$5</f>
         <v>4155.7999999999993</v>
       </c>
       <c r="H30" s="4">
@@ -6939,15 +7175,15 @@
         <v>27</v>
       </c>
       <c r="E31" s="6">
-        <f>+[13]Main!$I$2</f>
+        <f>+[14]Main!$I$2</f>
         <v>192.3</v>
       </c>
       <c r="F31" s="4">
-        <f>+[13]Main!$I$4</f>
+        <f>+[14]Main!$I$4</f>
         <v>22527.326947800004</v>
       </c>
       <c r="G31" s="4">
-        <f>+[13]Main!$I$6-[13]Main!$I$5</f>
+        <f>+[14]Main!$I$6-[14]Main!$I$5</f>
         <v>2179.5999999999995</v>
       </c>
       <c r="H31" s="4">
@@ -7128,7 +7364,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C40" t="s">
@@ -7137,10 +7373,25 @@
       <c r="D40" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="E40" s="6">
+        <f>+[15]Main!$J$2</f>
+        <v>451.49</v>
+      </c>
+      <c r="F40" s="4">
+        <f>+[15]Main!$J$4</f>
+        <v>15459.684450730001</v>
+      </c>
+      <c r="G40" s="4">
+        <f>+[15]Main!$J$6-[15]Main!$J$5</f>
+        <v>4671.4390000000003</v>
+      </c>
+      <c r="H40" s="4">
+        <f>+F40+G40</f>
+        <v>20131.123450730003</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -7208,7 +7459,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C44" t="s">
@@ -7217,10 +7468,25 @@
       <c r="D44" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="E44" s="6">
+        <f>+[16]Main!$I$2</f>
+        <v>164.28</v>
+      </c>
+      <c r="F44" s="4">
+        <f>+[16]Main!$I$4</f>
+        <v>16076.2140936</v>
+      </c>
+      <c r="G44" s="4">
+        <f>+[16]Main!$I$6-[16]Main!$I$5</f>
+        <v>-277.411</v>
+      </c>
+      <c r="H44" s="4">
+        <f>+F44+G44</f>
+        <v>15798.8030936</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -7642,15 +7908,15 @@
         <v>172</v>
       </c>
       <c r="E66">
-        <f>+[31]Main!$J$2</f>
+        <f>+[17]Main!$J$2</f>
         <v>190.5</v>
       </c>
       <c r="F66" s="4">
-        <f>+[31]Main!$J$4*FX!C10</f>
+        <f>+[17]Main!$J$4*FX!C10</f>
         <v>9653.9469578789995</v>
       </c>
       <c r="G66" s="4">
-        <f>+([31]Main!$J$6-[31]Main!$J$5)*FX!C10</f>
+        <f>+([17]Main!$J$6-[17]Main!$J$5)*FX!C10</f>
         <v>185.67080000000001</v>
       </c>
       <c r="H66" s="4">
@@ -7762,7 +8028,7 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C72" t="s">
@@ -7771,9 +8037,25 @@
       <c r="D72" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+      <c r="E72">
+        <f>+[18]Main!$J$2</f>
+        <v>137.83000000000001</v>
+      </c>
+      <c r="F72" s="4">
+        <f>+[18]Main!$J$4</f>
+        <v>5880.7446451600008</v>
+      </c>
+      <c r="G72" s="4">
+        <f>+[18]Main!$J$6-[18]Main!$J$5</f>
+        <v>-65.975999999999999</v>
+      </c>
+      <c r="H72" s="4">
+        <f>+F72+G72</f>
+        <v>5814.7686451600011</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="Q72" s="4"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -8836,15 +9118,15 @@
         <v>31</v>
       </c>
       <c r="E128">
-        <f>+[14]Main!$I$2</f>
+        <f>+[19]Main!$I$2</f>
         <v>15.7</v>
       </c>
       <c r="F128" s="4">
-        <f>+[14]Main!$I$4*FX!C3</f>
+        <f>+[19]Main!$I$4*FX!C3</f>
         <v>3243.4944</v>
       </c>
       <c r="G128" s="4">
-        <f>+([14]Main!$I$6-[14]Main!$I$5)*FX!C3</f>
+        <f>+([19]Main!$I$6-[19]Main!$I$5)*FX!C3</f>
         <v>2300.16</v>
       </c>
       <c r="H128" s="4">
@@ -10294,15 +10576,15 @@
         <v>172</v>
       </c>
       <c r="E203">
-        <f>+[15]Main!$J$2</f>
+        <f>+[20]Main!$J$2</f>
         <v>70.25</v>
       </c>
       <c r="F203" s="4">
-        <f>+[15]Main!$J$4*FX!C10</f>
+        <f>+[20]Main!$J$4*FX!C10</f>
         <v>772.74349442850007</v>
       </c>
       <c r="G203" s="4">
-        <f>+([15]Main!$J$6-[15]Main!$J$5)*FX!C10</f>
+        <f>+([20]Main!$J$6-[20]Main!$J$5)*FX!C10</f>
         <v>466.023124</v>
       </c>
       <c r="H203" s="4">
@@ -10367,26 +10649,26 @@
         <v>146</v>
       </c>
       <c r="E206">
-        <f>+[16]Main!$H$2</f>
-        <v>74.5</v>
+        <f>+[21]Main!$H$2</f>
+        <v>92.6</v>
       </c>
       <c r="F206" s="4">
-        <f>+[16]Main!$H$4*FX!C8</f>
-        <v>578.59394813999995</v>
+        <f>+[21]Main!$H$4*FX!C8</f>
+        <v>719.16509527199992</v>
       </c>
       <c r="G206" s="4">
-        <f>+([16]Main!$H$6-[16]Main!$H$5)*FX!C8</f>
-        <v>-107.93519999999999</v>
+        <f>+([21]Main!$H$6-[21]Main!$H$5)*FX!C8</f>
+        <v>-109.47875999999999</v>
       </c>
       <c r="H206" s="4">
         <f>+F206+G206</f>
-        <v>470.65874813999994</v>
+        <v>609.68633527199995</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>88</v>
+        <v>1169</v>
       </c>
       <c r="J206" s="9">
-        <v>45701</v>
+        <v>46066</v>
       </c>
       <c r="K206" s="5"/>
       <c r="L206" s="10">
@@ -11363,15 +11645,15 @@
         <v>926</v>
       </c>
       <c r="E259">
-        <f>+[17]Main!$J$2</f>
+        <f>+[22]Main!$J$2</f>
         <v>58.4</v>
       </c>
       <c r="F259" s="4">
-        <f>+[17]Main!$J$4*FX!C10</f>
+        <f>+[22]Main!$J$4*FX!C10</f>
         <v>501.81546996000003</v>
       </c>
       <c r="G259" s="4">
-        <f>+([17]Main!$J$6-[17]Main!$J$5)*FX!C10</f>
+        <f>+([22]Main!$J$6-[22]Main!$J$5)*FX!C10</f>
         <v>12.976179999999999</v>
       </c>
       <c r="H259" s="4">
@@ -12963,15 +13245,15 @@
         <v>926</v>
       </c>
       <c r="E348">
-        <f>+[18]Main!$I$2</f>
+        <f>+[23]Main!$I$2</f>
         <v>85</v>
       </c>
       <c r="F348" s="4">
-        <f>+[18]Main!$I$4*FX!C10</f>
+        <f>+[23]Main!$I$4*FX!C10</f>
         <v>302.45397000000003</v>
       </c>
       <c r="G348" s="4">
-        <f>+([18]Main!$I$6-[18]Main!$I$5)*FX!C10</f>
+        <f>+([23]Main!$I$6-[23]Main!$I$5)*FX!C10</f>
         <v>86.644348000000022</v>
       </c>
       <c r="H348" s="4">
@@ -13138,6 +13420,11 @@
     <hyperlink ref="B259" r:id="rId17" xr:uid="{1DE1AF70-501A-4EAF-BBBA-F2A52CC98387}"/>
     <hyperlink ref="B203" r:id="rId18" xr:uid="{333F9323-1D4E-4DED-99B8-123253F3C3FB}"/>
     <hyperlink ref="B66" r:id="rId19" xr:uid="{DD2F3985-F059-492A-ACBE-F18EDFF094EB}"/>
+    <hyperlink ref="B44" r:id="rId20" xr:uid="{B4DBE39C-E432-4F4E-8743-4B3B1FDF6A34}"/>
+    <hyperlink ref="B72" r:id="rId21" xr:uid="{4D631F33-B3DD-4E31-AFCB-3879505B9940}"/>
+    <hyperlink ref="B40" r:id="rId22" xr:uid="{943F80B6-F72B-4E85-AA19-F202B8F5955F}"/>
+    <hyperlink ref="B15" r:id="rId23" xr:uid="{018A53B6-FF7F-40C5-8DBC-8AF6CEADEA65}"/>
+    <hyperlink ref="B16" r:id="rId24" xr:uid="{4D5587CE-95E4-41FD-91DC-7D5D63A25FEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13148,7 +13435,7 @@
   <dimension ref="A1:P127"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13220,15 +13507,15 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <f>+[19]Main!$I$2</f>
+        <f>+[24]Main!$I$2</f>
         <v>71.89</v>
       </c>
       <c r="F4" s="4">
-        <f>+[19]Main!$I$4</f>
+        <f>+[24]Main!$I$4</f>
         <v>309198.91839655</v>
       </c>
       <c r="G4" s="4">
-        <f>+[19]Main!$I$6-[19]Main!$I$5</f>
+        <f>+[24]Main!$I$6-[24]Main!$I$5</f>
         <v>28452</v>
       </c>
       <c r="H4" s="4">
@@ -13336,15 +13623,15 @@
         <v>27</v>
       </c>
       <c r="E9">
-        <f>+[20]Main!$J$2</f>
+        <f>+[25]Main!$J$2</f>
         <v>97.02</v>
       </c>
       <c r="F9" s="4">
-        <f>+[20]Main!$J$4</f>
+        <f>+[25]Main!$J$4</f>
         <v>110205.01800000001</v>
       </c>
       <c r="G9" s="4">
-        <f>+[20]Main!$J$6-[20]Main!$J$5</f>
+        <f>+[25]Main!$J$6-[25]Main!$J$5</f>
         <v>11604.2</v>
       </c>
       <c r="H9" s="4">
@@ -15631,15 +15918,15 @@
         <v>27</v>
       </c>
       <c r="E5" s="16">
-        <f>+[21]Main!$K$3</f>
+        <f>+[26]Main!$K$3</f>
         <v>168.82</v>
       </c>
       <c r="F5" s="4">
-        <f>+[21]Main!$K$5</f>
+        <f>+[26]Main!$K$5</f>
         <v>262490.99604921998</v>
       </c>
       <c r="G5" s="4">
-        <f>+[21]Main!$K$7-[21]Main!$K$6</f>
+        <f>+[26]Main!$K$7-[26]Main!$K$6</f>
         <v>41479</v>
       </c>
       <c r="H5" s="4">
@@ -15692,15 +15979,15 @@
         <v>27</v>
       </c>
       <c r="E6" s="16">
-        <f>+[22]Main!$M$3</f>
+        <f>+[27]Main!$M$3</f>
         <v>58.4</v>
       </c>
       <c r="F6" s="4">
-        <f>+[22]Main!$M$5</f>
+        <f>+[27]Main!$M$5</f>
         <v>98371.986171199998</v>
       </c>
       <c r="G6" s="4">
-        <f>+[22]Main!$M$7-[22]Main!$M$6</f>
+        <f>+[27]Main!$M$7-[27]Main!$M$6</f>
         <v>21333</v>
       </c>
       <c r="H6" s="4">
@@ -15753,15 +16040,15 @@
         <v>31</v>
       </c>
       <c r="E7" s="16">
-        <f>+[23]Main!$H$2</f>
+        <f>+[28]Main!$H$2</f>
         <v>38.49</v>
       </c>
       <c r="F7" s="4">
-        <f>+[23]Main!$H$5*FX!C3</f>
+        <f>+[28]Main!$H$5*FX!C3</f>
         <v>93986.9568</v>
       </c>
       <c r="G7" s="4">
-        <f>+([22]Main!$M$7-[22]Main!$M$6)*FX!C3</f>
+        <f>+([27]Main!$M$7-[27]Main!$M$6)*FX!C3</f>
         <v>27306.240000000002</v>
       </c>
       <c r="H7" s="4">
@@ -15809,15 +16096,15 @@
         <v>40</v>
       </c>
       <c r="E8" s="16">
-        <f>+[24]Main!$H$2</f>
+        <f>+[29]Main!$H$2</f>
         <v>485.4</v>
       </c>
       <c r="F8" s="4">
-        <f>+[24]Main!$H$4*FX!C4</f>
+        <f>+[29]Main!$H$4*FX!C4</f>
         <v>72888.393927045603</v>
       </c>
       <c r="G8" s="4">
-        <f>+([24]Main!$H$6-[24]Main!$H$5)*FX!C4</f>
+        <f>+([29]Main!$H$6-[29]Main!$H$5)*FX!C4</f>
         <v>-228.87708000000006</v>
       </c>
       <c r="H8" s="4">
@@ -15854,15 +16141,15 @@
         <v>95</v>
       </c>
       <c r="E9" s="4">
-        <f>+[25]Main!$J$2</f>
+        <f>+[30]Main!$J$2</f>
         <v>4080</v>
       </c>
       <c r="F9" s="4">
-        <f>+[25]Main!$J$4*FX!C5</f>
+        <f>+[30]Main!$J$4*FX!C5</f>
         <v>49263.210449311024</v>
       </c>
       <c r="G9" s="4">
-        <f>+([25]Main!$J$6-[25]Main!$J$5)*FX!C5</f>
+        <f>+([30]Main!$J$6-[30]Main!$J$5)*FX!C5</f>
         <v>874.26239999999996</v>
       </c>
       <c r="H9" s="4">
@@ -15904,15 +16191,15 @@
         <v>31</v>
       </c>
       <c r="E10" s="16">
-        <f>+[26]Main!$I$2</f>
+        <f>+[31]Main!$I$2</f>
         <v>25.6</v>
       </c>
       <c r="F10" s="4">
-        <f>+([26]Main!$I$4)*FX!C3</f>
+        <f>+([31]Main!$I$4)*FX!C3</f>
         <v>28475.392000000003</v>
       </c>
       <c r="G10" s="4">
-        <f>+([26]Main!$I$6-[26]Main!$I$5)*FX!C3</f>
+        <f>+([31]Main!$I$6-[31]Main!$I$5)*FX!C3</f>
         <v>9880.32</v>
       </c>
       <c r="H10" s="4">
@@ -15948,15 +16235,15 @@
         <v>617</v>
       </c>
       <c r="E11" s="4">
-        <f>+[27]Main!$I$2</f>
+        <f>+[32]Main!$I$2</f>
         <v>107400</v>
       </c>
       <c r="F11" s="4">
-        <f>+[27]Main!$I$4*FX!C6</f>
+        <f>+[32]Main!$I$4*FX!C6</f>
         <v>9270.9964935000007</v>
       </c>
       <c r="G11" s="4">
-        <f>+([27]Main!$I$6-[27]Main!$I$5)*FX!C6</f>
+        <f>+([32]Main!$I$6-[32]Main!$I$5)*FX!C6</f>
         <v>-575.42399999999998</v>
       </c>
       <c r="H11" s="4">
@@ -15990,15 +16277,15 @@
         <v>240</v>
       </c>
       <c r="E12" s="4">
-        <f>+[28]Main!$I$2</f>
+        <f>+[33]Main!$I$2</f>
         <v>590</v>
       </c>
       <c r="F12" s="4">
-        <f>+[28]Main!$I$4*FX!C7</f>
+        <f>+[33]Main!$I$4*FX!C7</f>
         <v>4254.915253002001</v>
       </c>
       <c r="G12" s="4">
-        <f>+([28]Main!$I$6-[28]Main!$I$5)*FX!C7</f>
+        <f>+([33]Main!$I$6-[33]Main!$I$5)*FX!C7</f>
         <v>-162.340056</v>
       </c>
       <c r="H12" s="4">
@@ -16177,15 +16464,15 @@
         <v>27</v>
       </c>
       <c r="E19" s="16">
-        <f>+[29]Main!$I$3</f>
+        <f>+[34]Main!$I$3</f>
         <v>69.63</v>
       </c>
       <c r="F19" s="4">
-        <f>+[29]Main!$I$5</f>
+        <f>+[34]Main!$I$5</f>
         <v>1232.2425974099999</v>
       </c>
       <c r="G19" s="4">
-        <f>+[29]Main!$I$7-[29]Main!$I$6</f>
+        <f>+[34]Main!$I$7-[34]Main!$I$6</f>
         <v>214.72500000000002</v>
       </c>
       <c r="H19" s="4">
@@ -16219,15 +16506,15 @@
         <v>27</v>
       </c>
       <c r="E20" s="16">
-        <f>+[30]Main!$I$2</f>
+        <f>+[35]Main!$I$2</f>
         <v>4.3600000000000003</v>
       </c>
       <c r="F20" s="4">
-        <f>+[30]Main!$I$4</f>
+        <f>+[35]Main!$I$4</f>
         <v>248.91663792000003</v>
       </c>
       <c r="G20" s="4">
-        <f>+[30]Main!$I$6-[30]Main!$I$5</f>
+        <f>+[35]Main!$I$6-[35]Main!$I$5</f>
         <v>-34.395385999999995</v>
       </c>
       <c r="H20" s="4">

--- a/ConsumerGoods.xlsx
+++ b/ConsumerGoods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0876E0-69D3-484B-B10B-33CAADAE179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC89ED64-CD7D-43EB-9555-86E31CDBE37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{C5F9E374-3D8E-42B5-B067-E68CE63456D2}"/>
+    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" activeTab="3" xr2:uid="{C5F9E374-3D8E-42B5-B067-E68CE63456D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,7 @@
     <externalReference r:id="rId39"/>
     <externalReference r:id="rId40"/>
     <externalReference r:id="rId41"/>
+    <externalReference r:id="rId42"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="1169">
   <si>
     <t>Consumer Goods</t>
   </si>
@@ -2330,9 +2331,6 @@
   </si>
   <si>
     <t>BTI</t>
-  </si>
-  <si>
-    <t>H124</t>
   </si>
   <si>
     <t>ITC</t>
@@ -3935,6 +3933,45 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="J2">
+            <v>164.97</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>33423.547236300001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>1515.252</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>5925.4940000000006</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
           <cell r="I2">
             <v>81.52</v>
           </cell>
@@ -3961,7 +3998,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4000,7 +4037,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4039,7 +4076,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4078,7 +4115,46 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>90.6</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>10478.7931914</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>289.35000000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4092,22 +4168,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>451.49</v>
+            <v>480.97</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>15459.684450730001</v>
+            <v>16328.412533369999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>304.32</v>
+            <v>484.59299999999996</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>4975.759</v>
+            <v>4975.8360000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -4117,7 +4193,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4156,7 +4232,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4186,84 +4262,6 @@
         <row r="6">
           <cell r="J6">
             <v>2094.9</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2">
-            <v>137.83000000000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>5880.7446451600008</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>312.92099999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>246.94499999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>15.7</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>2533.98</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>334.4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>2131.4</v>
           </cell>
         </row>
       </sheetData>
@@ -4326,6 +4324,84 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
+            <v>137.83000000000001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>5880.7446451600008</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>312.92099999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>246.94499999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>15.7</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>2533.98</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>334.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>2131.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
             <v>70.25</v>
           </cell>
         </row>
@@ -4351,7 +4427,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4400,7 +4476,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4439,7 +4515,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4478,7 +4554,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4517,7 +4593,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4556,7 +4632,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4572,12 +4648,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>168.82</v>
+            <v>170.9</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>262490.99604921998</v>
+            <v>265725.09906889999</v>
           </cell>
         </row>
         <row r="6">
@@ -4599,7 +4675,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4635,80 +4711,6 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Products"/>
-      <sheetName val="Model"/>
-      <sheetName val="Ratios"/>
-      <sheetName val="DCF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="H2">
-            <v>38.49</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>73427.31</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financials"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="H2">
-            <v>485.4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>6074032.8272537999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>19099.870000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>26.78</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4759,6 +4761,80 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Products"/>
+      <sheetName val="Model"/>
+      <sheetName val="Ratios"/>
+      <sheetName val="DCF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="H2">
+            <v>38.49</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>89295.8</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financials"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="H2">
+            <v>485.4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>6074032.8272537999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>19099.870000000003</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>26.78</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Financials"/>
     </sheetNames>
     <sheetDataSet>
@@ -4790,7 +4866,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4829,7 +4905,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4868,7 +4944,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4907,7 +4983,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4946,7 +5022,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4976,45 +5052,6 @@
         <row r="6">
           <cell r="I6">
             <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2">
-            <v>164.97</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>33423.547236300001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>1515.252</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>5925.4940000000006</v>
           </cell>
         </row>
       </sheetData>
@@ -5657,10 +5694,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" t="s">
         <v>782</v>
-      </c>
-      <c r="C4" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -5669,10 +5706,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>783</v>
+      </c>
+      <c r="C5" t="s">
         <v>784</v>
-      </c>
-      <c r="C5" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -5681,7 +5718,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -5693,10 +5730,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>786</v>
+      </c>
+      <c r="C7" t="s">
         <v>787</v>
-      </c>
-      <c r="C7" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -5717,10 +5754,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>788</v>
+      </c>
+      <c r="C9" t="s">
         <v>789</v>
-      </c>
-      <c r="C9" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -5729,10 +5766,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C10" t="s">
         <v>791</v>
-      </c>
-      <c r="C10" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -5741,10 +5778,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>792</v>
+      </c>
+      <c r="C11" t="s">
         <v>793</v>
-      </c>
-      <c r="C11" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -5753,10 +5790,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>794</v>
+      </c>
+      <c r="C12" t="s">
         <v>795</v>
-      </c>
-      <c r="C12" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -5765,10 +5802,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>796</v>
+      </c>
+      <c r="C13" t="s">
         <v>797</v>
-      </c>
-      <c r="C13" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -5777,10 +5814,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>798</v>
+      </c>
+      <c r="C14" t="s">
         <v>799</v>
-      </c>
-      <c r="C14" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -5789,10 +5826,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C15" t="s">
         <v>801</v>
-      </c>
-      <c r="C15" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -5801,10 +5838,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>802</v>
+      </c>
+      <c r="C16" t="s">
         <v>803</v>
-      </c>
-      <c r="C16" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5813,10 +5850,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>804</v>
+      </c>
+      <c r="C17" t="s">
         <v>805</v>
-      </c>
-      <c r="C17" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5825,10 +5862,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>806</v>
+      </c>
+      <c r="C18" t="s">
         <v>807</v>
-      </c>
-      <c r="C18" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5837,10 +5874,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>808</v>
+      </c>
+      <c r="C19" t="s">
         <v>809</v>
-      </c>
-      <c r="C19" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5849,10 +5886,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>810</v>
+      </c>
+      <c r="C20" t="s">
         <v>811</v>
-      </c>
-      <c r="C20" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5861,10 +5898,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>812</v>
+      </c>
+      <c r="C21" t="s">
         <v>813</v>
-      </c>
-      <c r="C21" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5873,10 +5910,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>814</v>
+      </c>
+      <c r="C22" t="s">
         <v>815</v>
-      </c>
-      <c r="C22" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5885,10 +5922,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>816</v>
+      </c>
+      <c r="C23" t="s">
         <v>817</v>
-      </c>
-      <c r="C23" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5897,10 +5934,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>818</v>
+      </c>
+      <c r="C24" t="s">
         <v>819</v>
-      </c>
-      <c r="C24" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5909,10 +5946,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C25" t="s">
         <v>821</v>
-      </c>
-      <c r="C25" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5921,10 +5958,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
+        <v>870</v>
+      </c>
+      <c r="C26" t="s">
         <v>871</v>
-      </c>
-      <c r="C26" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5933,10 +5970,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>822</v>
+      </c>
+      <c r="C27" t="s">
         <v>823</v>
-      </c>
-      <c r="C27" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5945,10 +5982,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
+        <v>824</v>
+      </c>
+      <c r="C28" t="s">
         <v>825</v>
-      </c>
-      <c r="C28" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5957,10 +5994,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
+        <v>826</v>
+      </c>
+      <c r="C29" t="s">
         <v>827</v>
-      </c>
-      <c r="C29" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5969,10 +6006,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>828</v>
+      </c>
+      <c r="C30" t="s">
         <v>829</v>
-      </c>
-      <c r="C30" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5981,10 +6018,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
+        <v>830</v>
+      </c>
+      <c r="C31" t="s">
         <v>831</v>
-      </c>
-      <c r="C31" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5993,10 +6030,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
+        <v>872</v>
+      </c>
+      <c r="C32" t="s">
         <v>873</v>
-      </c>
-      <c r="C32" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6017,10 +6054,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>832</v>
+      </c>
+      <c r="C34" t="s">
         <v>833</v>
-      </c>
-      <c r="C34" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6029,10 +6066,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>834</v>
+      </c>
+      <c r="C35" t="s">
         <v>835</v>
-      </c>
-      <c r="C35" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6041,10 +6078,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>836</v>
+      </c>
+      <c r="C36" t="s">
         <v>837</v>
-      </c>
-      <c r="C36" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6053,10 +6090,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
+        <v>838</v>
+      </c>
+      <c r="C37" t="s">
         <v>839</v>
-      </c>
-      <c r="C37" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6065,10 +6102,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
+        <v>840</v>
+      </c>
+      <c r="C38" t="s">
         <v>841</v>
-      </c>
-      <c r="C38" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6077,10 +6114,10 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
+        <v>842</v>
+      </c>
+      <c r="C39" t="s">
         <v>843</v>
-      </c>
-      <c r="C39" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6089,10 +6126,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
+        <v>844</v>
+      </c>
+      <c r="C40" t="s">
         <v>845</v>
-      </c>
-      <c r="C40" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6101,10 +6138,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
+        <v>846</v>
+      </c>
+      <c r="C41" t="s">
         <v>847</v>
-      </c>
-      <c r="C41" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6113,10 +6150,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
+        <v>848</v>
+      </c>
+      <c r="C42" t="s">
         <v>849</v>
-      </c>
-      <c r="C42" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6125,10 +6162,10 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
+        <v>850</v>
+      </c>
+      <c r="C43" t="s">
         <v>851</v>
-      </c>
-      <c r="C43" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6137,10 +6174,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
+        <v>852</v>
+      </c>
+      <c r="C44" t="s">
         <v>853</v>
-      </c>
-      <c r="C44" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6149,10 +6186,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
+        <v>854</v>
+      </c>
+      <c r="C45" t="s">
         <v>855</v>
-      </c>
-      <c r="C45" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6161,10 +6198,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
+        <v>856</v>
+      </c>
+      <c r="C46" t="s">
         <v>857</v>
-      </c>
-      <c r="C46" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6173,10 +6210,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
+        <v>858</v>
+      </c>
+      <c r="C47" t="s">
         <v>859</v>
-      </c>
-      <c r="C47" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6185,10 +6222,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
+        <v>860</v>
+      </c>
+      <c r="C48" t="s">
         <v>861</v>
-      </c>
-      <c r="C48" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6197,10 +6234,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
+        <v>862</v>
+      </c>
+      <c r="C49" t="s">
         <v>863</v>
-      </c>
-      <c r="C49" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6209,10 +6246,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
+        <v>864</v>
+      </c>
+      <c r="C50" t="s">
         <v>865</v>
-      </c>
-      <c r="C50" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6221,10 +6258,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
+        <v>866</v>
+      </c>
+      <c r="C51" t="s">
         <v>867</v>
-      </c>
-      <c r="C51" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6233,10 +6270,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
+        <v>868</v>
+      </c>
+      <c r="C52" t="s">
         <v>869</v>
-      </c>
-      <c r="C52" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6254,8 +6291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105F34CF-7B93-4C80-9712-0C74998FDC34}">
   <dimension ref="A1:AG374"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6775,7 +6812,7 @@
         <v>42081.899404299998</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Q15" s="4"/>
     </row>
@@ -6794,15 +6831,15 @@
         <v>27</v>
       </c>
       <c r="E16" s="6">
-        <f>+[36]Main!$J$2</f>
+        <f>+[11]Main!$J$2</f>
         <v>164.97</v>
       </c>
       <c r="F16" s="4">
-        <f>+[36]Main!$J$4</f>
+        <f>+[11]Main!$J$4</f>
         <v>33423.547236300001</v>
       </c>
       <c r="G16" s="4">
-        <f>+[36]Main!$J$6-[36]Main!$J$5</f>
+        <f>+[11]Main!$J$6-[11]Main!$J$5</f>
         <v>4410.2420000000002</v>
       </c>
       <c r="H16" s="4">
@@ -6929,15 +6966,15 @@
         <v>27</v>
       </c>
       <c r="E22" s="6">
-        <f>+[11]Main!$I$2</f>
+        <f>+[12]Main!$I$2</f>
         <v>81.52</v>
       </c>
       <c r="F22" s="4">
-        <f>+[11]Main!$I$4</f>
+        <f>+[12]Main!$I$4</f>
         <v>28099.772318880001</v>
       </c>
       <c r="G22" s="4">
-        <f>+[11]Main!$I$6-[11]Main!$I$5</f>
+        <f>+[12]Main!$I$6-[12]Main!$I$5</f>
         <v>5160</v>
       </c>
       <c r="H22" s="4">
@@ -7034,15 +7071,15 @@
         <v>27</v>
       </c>
       <c r="E26" s="6">
-        <f>+[12]Main!$I$2</f>
+        <f>+[13]Main!$I$2</f>
         <v>51.28</v>
       </c>
       <c r="F26" s="4">
-        <f>+[12]Main!$I$4</f>
+        <f>+[13]Main!$I$4</f>
         <v>24539.198905600002</v>
       </c>
       <c r="G26" s="4">
-        <f>+[12]Main!$I$6-[12]Main!$I$5</f>
+        <f>+[13]Main!$I$6-[13]Main!$I$5</f>
         <v>1450</v>
       </c>
       <c r="H26" s="4">
@@ -7136,15 +7173,15 @@
         <v>27</v>
       </c>
       <c r="E30" s="6">
-        <f>+[13]Main!$J$2</f>
+        <f>+[14]Main!$J$2</f>
         <v>76.930000000000007</v>
       </c>
       <c r="F30" s="4">
-        <f>+[13]Main!$J$4</f>
+        <f>+[14]Main!$J$4</f>
         <v>20629.107760310002</v>
       </c>
       <c r="G30" s="4">
-        <f>+[13]Main!$J$6-[13]Main!$J$5</f>
+        <f>+[14]Main!$J$6-[14]Main!$J$5</f>
         <v>4155.7999999999993</v>
       </c>
       <c r="H30" s="4">
@@ -7175,15 +7212,15 @@
         <v>27</v>
       </c>
       <c r="E31" s="6">
-        <f>+[14]Main!$I$2</f>
+        <f>+[15]Main!$I$2</f>
         <v>192.3</v>
       </c>
       <c r="F31" s="4">
-        <f>+[14]Main!$I$4</f>
+        <f>+[15]Main!$I$4</f>
         <v>22527.326947800004</v>
       </c>
       <c r="G31" s="4">
-        <f>+[14]Main!$I$6-[14]Main!$I$5</f>
+        <f>+[15]Main!$I$6-[15]Main!$I$5</f>
         <v>2179.5999999999995</v>
       </c>
       <c r="H31" s="4">
@@ -7344,7 +7381,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C39" t="s">
@@ -7353,10 +7390,25 @@
       <c r="D39" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="E39" s="6">
+        <f>+[16]Main!$I$2</f>
+        <v>90.6</v>
+      </c>
+      <c r="F39" s="4">
+        <f>+[16]Main!$I$4</f>
+        <v>10478.7931914</v>
+      </c>
+      <c r="G39" s="4">
+        <f>+[16]Main!$I$6-[16]Main!$I$5</f>
+        <v>-289.35000000000002</v>
+      </c>
+      <c r="H39" s="4">
+        <f>+F39+G39</f>
+        <v>10189.4431914</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="Q39" s="4"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -7374,23 +7426,23 @@
         <v>27</v>
       </c>
       <c r="E40" s="6">
-        <f>+[15]Main!$J$2</f>
-        <v>451.49</v>
+        <f>+[17]Main!$J$2</f>
+        <v>480.97</v>
       </c>
       <c r="F40" s="4">
-        <f>+[15]Main!$J$4</f>
-        <v>15459.684450730001</v>
+        <f>+[17]Main!$J$4</f>
+        <v>16328.412533369999</v>
       </c>
       <c r="G40" s="4">
-        <f>+[15]Main!$J$6-[15]Main!$J$5</f>
-        <v>4671.4390000000003</v>
+        <f>+[17]Main!$J$6-[17]Main!$J$5</f>
+        <v>4491.2430000000004</v>
       </c>
       <c r="H40" s="4">
         <f>+F40+G40</f>
-        <v>20131.123450730003</v>
+        <v>20819.655533370002</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>491</v>
+        <v>1168</v>
       </c>
       <c r="Q40" s="4"/>
     </row>
@@ -7469,15 +7521,15 @@
         <v>27</v>
       </c>
       <c r="E44" s="6">
-        <f>+[16]Main!$I$2</f>
+        <f>+[18]Main!$I$2</f>
         <v>164.28</v>
       </c>
       <c r="F44" s="4">
-        <f>+[16]Main!$I$4</f>
+        <f>+[18]Main!$I$4</f>
         <v>16076.2140936</v>
       </c>
       <c r="G44" s="4">
-        <f>+[16]Main!$I$6-[16]Main!$I$5</f>
+        <f>+[18]Main!$I$6-[18]Main!$I$5</f>
         <v>-277.411</v>
       </c>
       <c r="H44" s="4">
@@ -7902,21 +7954,21 @@
         <v>171</v>
       </c>
       <c r="C66" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D66" t="s">
         <v>172</v>
       </c>
       <c r="E66">
-        <f>+[17]Main!$J$2</f>
+        <f>+[19]Main!$J$2</f>
         <v>190.5</v>
       </c>
       <c r="F66" s="4">
-        <f>+[17]Main!$J$4*FX!C10</f>
+        <f>+[19]Main!$J$4*FX!C10</f>
         <v>9653.9469578789995</v>
       </c>
       <c r="G66" s="4">
-        <f>+([17]Main!$J$6-[17]Main!$J$5)*FX!C10</f>
+        <f>+([19]Main!$J$6-[19]Main!$J$5)*FX!C10</f>
         <v>185.67080000000001</v>
       </c>
       <c r="H66" s="4">
@@ -8038,15 +8090,15 @@
         <v>27</v>
       </c>
       <c r="E72">
-        <f>+[18]Main!$J$2</f>
+        <f>+[20]Main!$J$2</f>
         <v>137.83000000000001</v>
       </c>
       <c r="F72" s="4">
-        <f>+[18]Main!$J$4</f>
+        <f>+[20]Main!$J$4</f>
         <v>5880.7446451600008</v>
       </c>
       <c r="G72" s="4">
-        <f>+[18]Main!$J$6-[18]Main!$J$5</f>
+        <f>+[20]Main!$J$6-[20]Main!$J$5</f>
         <v>-65.975999999999999</v>
       </c>
       <c r="H72" s="4">
@@ -9118,15 +9170,15 @@
         <v>31</v>
       </c>
       <c r="E128">
-        <f>+[19]Main!$I$2</f>
+        <f>+[21]Main!$I$2</f>
         <v>15.7</v>
       </c>
       <c r="F128" s="4">
-        <f>+[19]Main!$I$4*FX!C3</f>
+        <f>+[21]Main!$I$4*FX!C3</f>
         <v>3243.4944</v>
       </c>
       <c r="G128" s="4">
-        <f>+([19]Main!$I$6-[19]Main!$I$5)*FX!C3</f>
+        <f>+([21]Main!$I$6-[21]Main!$I$5)*FX!C3</f>
         <v>2300.16</v>
       </c>
       <c r="H128" s="4">
@@ -10576,15 +10628,15 @@
         <v>172</v>
       </c>
       <c r="E203">
-        <f>+[20]Main!$J$2</f>
+        <f>+[22]Main!$J$2</f>
         <v>70.25</v>
       </c>
       <c r="F203" s="4">
-        <f>+[20]Main!$J$4*FX!C10</f>
+        <f>+[22]Main!$J$4*FX!C10</f>
         <v>772.74349442850007</v>
       </c>
       <c r="G203" s="4">
-        <f>+([20]Main!$J$6-[20]Main!$J$5)*FX!C10</f>
+        <f>+([22]Main!$J$6-[22]Main!$J$5)*FX!C10</f>
         <v>466.023124</v>
       </c>
       <c r="H203" s="4">
@@ -10649,15 +10701,15 @@
         <v>146</v>
       </c>
       <c r="E206">
-        <f>+[21]Main!$H$2</f>
+        <f>+[23]Main!$H$2</f>
         <v>92.6</v>
       </c>
       <c r="F206" s="4">
-        <f>+[21]Main!$H$4*FX!C8</f>
+        <f>+[23]Main!$H$4*FX!C8</f>
         <v>719.16509527199992</v>
       </c>
       <c r="G206" s="4">
-        <f>+([21]Main!$H$6-[21]Main!$H$5)*FX!C8</f>
+        <f>+([23]Main!$H$6-[23]Main!$H$5)*FX!C8</f>
         <v>-109.47875999999999</v>
       </c>
       <c r="H206" s="4">
@@ -10665,7 +10717,7 @@
         <v>609.68633527199995</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J206" s="9">
         <v>46066</v>
@@ -10697,13 +10749,13 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
+        <v>874</v>
+      </c>
+      <c r="C207" t="s">
         <v>875</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>876</v>
-      </c>
-      <c r="D207" t="s">
-        <v>877</v>
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
@@ -10716,13 +10768,13 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C208" t="s">
         <v>460</v>
       </c>
       <c r="D208" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
@@ -10735,13 +10787,13 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C209" t="s">
         <v>1161</v>
       </c>
-      <c r="C209" t="s">
-        <v>1162</v>
-      </c>
       <c r="D209" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
@@ -10754,13 +10806,13 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C210" t="s">
         <v>439</v>
       </c>
       <c r="D210" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
@@ -10773,13 +10825,13 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C211" t="s">
         <v>441</v>
       </c>
       <c r="D211" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
@@ -10792,13 +10844,13 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C212" t="s">
         <v>437</v>
       </c>
       <c r="D212" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
@@ -10811,13 +10863,13 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
+        <v>883</v>
+      </c>
+      <c r="C213" t="s">
         <v>884</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>885</v>
-      </c>
-      <c r="D213" t="s">
-        <v>886</v>
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
@@ -10830,13 +10882,13 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
+        <v>886</v>
+      </c>
+      <c r="C214" t="s">
         <v>887</v>
       </c>
-      <c r="C214" t="s">
-        <v>888</v>
-      </c>
       <c r="D214" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
@@ -10849,13 +10901,13 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C215" t="s">
         <v>464</v>
       </c>
       <c r="D215" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
@@ -10868,13 +10920,13 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
+        <v>890</v>
+      </c>
+      <c r="C216" t="s">
         <v>891</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>892</v>
-      </c>
-      <c r="D216" t="s">
-        <v>893</v>
       </c>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
@@ -10886,13 +10938,13 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C217" t="s">
         <v>456</v>
       </c>
       <c r="D217" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
@@ -10910,7 +10962,7 @@
         <v>393</v>
       </c>
       <c r="D218" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
@@ -10928,7 +10980,7 @@
         <v>448</v>
       </c>
       <c r="D219" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
@@ -10940,13 +10992,13 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
+        <v>894</v>
+      </c>
+      <c r="C220" t="s">
         <v>895</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>896</v>
-      </c>
-      <c r="D220" t="s">
-        <v>897</v>
       </c>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
@@ -10958,13 +11010,13 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
+        <v>897</v>
+      </c>
+      <c r="C221" t="s">
         <v>898</v>
       </c>
-      <c r="C221" t="s">
-        <v>899</v>
-      </c>
       <c r="D221" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
@@ -10976,13 +11028,13 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
+        <v>899</v>
+      </c>
+      <c r="C222" t="s">
         <v>900</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>901</v>
-      </c>
-      <c r="D222" t="s">
-        <v>902</v>
       </c>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
@@ -10994,13 +11046,13 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
+        <v>902</v>
+      </c>
+      <c r="C223" t="s">
         <v>903</v>
       </c>
-      <c r="C223" t="s">
-        <v>904</v>
-      </c>
       <c r="D223" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
@@ -11012,13 +11064,13 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
+        <v>904</v>
+      </c>
+      <c r="C224" t="s">
         <v>905</v>
       </c>
-      <c r="C224" t="s">
-        <v>906</v>
-      </c>
       <c r="D224" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
@@ -11030,13 +11082,13 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C225" t="s">
         <v>470</v>
       </c>
       <c r="D225" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
@@ -11054,7 +11106,7 @@
         <v>462</v>
       </c>
       <c r="D226" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
@@ -11066,13 +11118,13 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
+        <v>909</v>
+      </c>
+      <c r="C227" t="s">
         <v>910</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>911</v>
-      </c>
-      <c r="D227" t="s">
-        <v>912</v>
       </c>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
@@ -11084,13 +11136,13 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
+        <v>912</v>
+      </c>
+      <c r="C228" t="s">
         <v>913</v>
       </c>
-      <c r="C228" t="s">
-        <v>914</v>
-      </c>
       <c r="D228" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
@@ -11102,13 +11154,13 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
+        <v>914</v>
+      </c>
+      <c r="C229" t="s">
         <v>915</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>916</v>
-      </c>
-      <c r="D229" t="s">
-        <v>917</v>
       </c>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
@@ -11120,13 +11172,13 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
+        <v>917</v>
+      </c>
+      <c r="C230" t="s">
         <v>918</v>
       </c>
-      <c r="C230" t="s">
-        <v>919</v>
-      </c>
       <c r="D230" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
@@ -11138,13 +11190,13 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C231" t="s">
         <v>435</v>
       </c>
       <c r="D231" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
@@ -11156,13 +11208,13 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C232" t="s">
         <v>446</v>
       </c>
       <c r="D232" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
@@ -11174,13 +11226,13 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
+        <v>921</v>
+      </c>
+      <c r="C233" t="s">
         <v>922</v>
       </c>
-      <c r="C233" t="s">
-        <v>923</v>
-      </c>
       <c r="D233" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
@@ -11192,13 +11244,13 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
+        <v>923</v>
+      </c>
+      <c r="C234" t="s">
         <v>924</v>
       </c>
-      <c r="C234" t="s">
-        <v>925</v>
-      </c>
       <c r="D234" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
@@ -11210,13 +11262,13 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
+        <v>926</v>
+      </c>
+      <c r="C235" t="s">
         <v>927</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>928</v>
-      </c>
-      <c r="D235" t="s">
-        <v>929</v>
       </c>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
@@ -11228,13 +11280,13 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
+        <v>929</v>
+      </c>
+      <c r="C236" t="s">
         <v>930</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>931</v>
-      </c>
-      <c r="D236" t="s">
-        <v>932</v>
       </c>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
@@ -11246,13 +11298,13 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
+        <v>932</v>
+      </c>
+      <c r="C237" t="s">
         <v>933</v>
       </c>
-      <c r="C237" t="s">
-        <v>934</v>
-      </c>
       <c r="D237" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
@@ -11264,13 +11316,13 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
+        <v>934</v>
+      </c>
+      <c r="C238" t="s">
         <v>935</v>
       </c>
-      <c r="C238" t="s">
-        <v>936</v>
-      </c>
       <c r="D238" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
@@ -11282,13 +11334,13 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
+        <v>936</v>
+      </c>
+      <c r="C239" t="s">
         <v>937</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>938</v>
-      </c>
-      <c r="D239" t="s">
-        <v>939</v>
       </c>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
@@ -11300,13 +11352,13 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
+        <v>856</v>
+      </c>
+      <c r="C240" t="s">
         <v>857</v>
       </c>
-      <c r="C240" t="s">
-        <v>858</v>
-      </c>
       <c r="D240" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
@@ -11318,13 +11370,13 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
+        <v>940</v>
+      </c>
+      <c r="C241" t="s">
         <v>941</v>
       </c>
-      <c r="C241" t="s">
-        <v>942</v>
-      </c>
       <c r="D241" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
@@ -11336,13 +11388,13 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
+        <v>942</v>
+      </c>
+      <c r="C242" t="s">
         <v>943</v>
       </c>
-      <c r="C242" t="s">
-        <v>944</v>
-      </c>
       <c r="D242" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
@@ -11354,13 +11406,13 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
+        <v>944</v>
+      </c>
+      <c r="C243" t="s">
         <v>945</v>
       </c>
-      <c r="C243" t="s">
-        <v>946</v>
-      </c>
       <c r="D243" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
@@ -11372,7 +11424,7 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
@@ -11384,13 +11436,13 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
+        <v>947</v>
+      </c>
+      <c r="C245" t="s">
         <v>948</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>949</v>
-      </c>
-      <c r="D245" t="s">
-        <v>950</v>
       </c>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
@@ -11402,13 +11454,13 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
+        <v>950</v>
+      </c>
+      <c r="C246" t="s">
         <v>951</v>
       </c>
-      <c r="C246" t="s">
-        <v>952</v>
-      </c>
       <c r="D246" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
@@ -11420,13 +11472,13 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
+        <v>952</v>
+      </c>
+      <c r="C247" t="s">
         <v>953</v>
       </c>
-      <c r="C247" t="s">
-        <v>954</v>
-      </c>
       <c r="D247" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
@@ -11438,13 +11490,13 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
+        <v>954</v>
+      </c>
+      <c r="C248" t="s">
         <v>955</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>956</v>
-      </c>
-      <c r="D248" t="s">
-        <v>957</v>
       </c>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
@@ -11456,13 +11508,13 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
+        <v>957</v>
+      </c>
+      <c r="C249" t="s">
         <v>958</v>
       </c>
-      <c r="C249" t="s">
-        <v>959</v>
-      </c>
       <c r="D249" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
@@ -11480,7 +11532,7 @@
         <v>466</v>
       </c>
       <c r="D250" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
@@ -11498,7 +11550,7 @@
         <v>450</v>
       </c>
       <c r="D251" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
@@ -11510,13 +11562,13 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
+        <v>959</v>
+      </c>
+      <c r="C252" t="s">
         <v>960</v>
       </c>
-      <c r="C252" t="s">
-        <v>961</v>
-      </c>
       <c r="D252" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
@@ -11528,13 +11580,13 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
+        <v>961</v>
+      </c>
+      <c r="C253" t="s">
         <v>962</v>
       </c>
-      <c r="C253" t="s">
-        <v>963</v>
-      </c>
       <c r="D253" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
@@ -11546,13 +11598,13 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
+        <v>963</v>
+      </c>
+      <c r="C254" t="s">
         <v>964</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>965</v>
-      </c>
-      <c r="D254" t="s">
-        <v>966</v>
       </c>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
@@ -11564,13 +11616,13 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
+        <v>966</v>
+      </c>
+      <c r="C255" t="s">
         <v>967</v>
       </c>
-      <c r="C255" t="s">
-        <v>968</v>
-      </c>
       <c r="D255" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
@@ -11582,13 +11634,13 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
+        <v>968</v>
+      </c>
+      <c r="C256" t="s">
         <v>969</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>970</v>
-      </c>
-      <c r="D256" t="s">
-        <v>971</v>
       </c>
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
@@ -11600,13 +11652,13 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
+        <v>971</v>
+      </c>
+      <c r="C257" t="s">
         <v>972</v>
       </c>
-      <c r="C257" t="s">
-        <v>973</v>
-      </c>
       <c r="D257" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
@@ -11618,13 +11670,13 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
+        <v>973</v>
+      </c>
+      <c r="C258" t="s">
         <v>974</v>
       </c>
-      <c r="C258" t="s">
-        <v>975</v>
-      </c>
       <c r="D258" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
@@ -11636,24 +11688,24 @@
         <v>256</v>
       </c>
       <c r="B259" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C259" t="s">
         <v>976</v>
       </c>
-      <c r="C259" t="s">
-        <v>977</v>
-      </c>
       <c r="D259" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E259">
-        <f>+[22]Main!$J$2</f>
+        <f>+[24]Main!$J$2</f>
         <v>58.4</v>
       </c>
       <c r="F259" s="4">
-        <f>+[22]Main!$J$4*FX!C10</f>
+        <f>+[24]Main!$J$4*FX!C10</f>
         <v>501.81546996000003</v>
       </c>
       <c r="G259" s="4">
-        <f>+([22]Main!$J$6-[22]Main!$J$5)*FX!C10</f>
+        <f>+([24]Main!$J$6-[24]Main!$J$5)*FX!C10</f>
         <v>12.976179999999999</v>
       </c>
       <c r="H259" s="4">
@@ -11670,13 +11722,13 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
+        <v>977</v>
+      </c>
+      <c r="C260" t="s">
         <v>978</v>
       </c>
-      <c r="C260" t="s">
-        <v>979</v>
-      </c>
       <c r="D260" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
@@ -11688,13 +11740,13 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
+        <v>979</v>
+      </c>
+      <c r="C261" t="s">
         <v>980</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>981</v>
-      </c>
-      <c r="D261" t="s">
-        <v>982</v>
       </c>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
@@ -11706,13 +11758,13 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
+        <v>982</v>
+      </c>
+      <c r="C262" t="s">
         <v>983</v>
       </c>
-      <c r="C262" t="s">
-        <v>984</v>
-      </c>
       <c r="D262" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
@@ -11724,13 +11776,13 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
+        <v>984</v>
+      </c>
+      <c r="C263" t="s">
         <v>985</v>
       </c>
-      <c r="C263" t="s">
-        <v>986</v>
-      </c>
       <c r="D263" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
@@ -11742,13 +11794,13 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
+        <v>986</v>
+      </c>
+      <c r="C264" t="s">
         <v>987</v>
       </c>
-      <c r="C264" t="s">
-        <v>988</v>
-      </c>
       <c r="D264" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
@@ -11760,13 +11812,13 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
+        <v>988</v>
+      </c>
+      <c r="C265" t="s">
         <v>989</v>
       </c>
-      <c r="C265" t="s">
-        <v>990</v>
-      </c>
       <c r="D265" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
@@ -11778,13 +11830,13 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
+        <v>990</v>
+      </c>
+      <c r="C266" t="s">
         <v>991</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>992</v>
-      </c>
-      <c r="D266" t="s">
-        <v>993</v>
       </c>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
@@ -11796,13 +11848,13 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
+        <v>993</v>
+      </c>
+      <c r="C267" t="s">
         <v>994</v>
       </c>
-      <c r="C267" t="s">
-        <v>995</v>
-      </c>
       <c r="D267" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
@@ -11814,13 +11866,13 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
+        <v>995</v>
+      </c>
+      <c r="C268" t="s">
         <v>996</v>
       </c>
-      <c r="C268" t="s">
-        <v>997</v>
-      </c>
       <c r="D268" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
@@ -11832,13 +11884,13 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
+        <v>997</v>
+      </c>
+      <c r="C269" t="s">
         <v>998</v>
       </c>
-      <c r="C269" t="s">
-        <v>999</v>
-      </c>
       <c r="D269" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
@@ -11850,13 +11902,13 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
+        <v>999</v>
+      </c>
+      <c r="C270" t="s">
         <v>1000</v>
       </c>
-      <c r="C270" t="s">
-        <v>1001</v>
-      </c>
       <c r="D270" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
@@ -11868,13 +11920,13 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C271" t="s">
         <v>1002</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>1003</v>
-      </c>
-      <c r="D271" t="s">
-        <v>1004</v>
       </c>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
@@ -11886,13 +11938,13 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C272" t="s">
         <v>1005</v>
       </c>
-      <c r="C272" t="s">
-        <v>1006</v>
-      </c>
       <c r="D272" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
@@ -11904,13 +11956,13 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C273" t="s">
         <v>1007</v>
       </c>
-      <c r="C273" t="s">
-        <v>1008</v>
-      </c>
       <c r="D273" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
@@ -11922,13 +11974,13 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C274" t="s">
         <v>1009</v>
       </c>
-      <c r="C274" t="s">
-        <v>1010</v>
-      </c>
       <c r="D274" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
@@ -11940,13 +11992,13 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C275" t="s">
         <v>1011</v>
       </c>
-      <c r="C275" t="s">
-        <v>1012</v>
-      </c>
       <c r="D275" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
@@ -11958,13 +12010,13 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C276" t="s">
         <v>1013</v>
       </c>
-      <c r="C276" t="s">
-        <v>1014</v>
-      </c>
       <c r="D276" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
@@ -11976,13 +12028,13 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C277" t="s">
         <v>1015</v>
       </c>
-      <c r="C277" t="s">
-        <v>1016</v>
-      </c>
       <c r="D277" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
@@ -11994,13 +12046,13 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C278" t="s">
         <v>1017</v>
       </c>
-      <c r="C278" t="s">
-        <v>1018</v>
-      </c>
       <c r="D278" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
@@ -12012,13 +12064,13 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C279" t="s">
         <v>1019</v>
       </c>
-      <c r="C279" t="s">
-        <v>1020</v>
-      </c>
       <c r="D279" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
@@ -12030,13 +12082,13 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C280" t="s">
         <v>1021</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>1022</v>
-      </c>
-      <c r="D280" t="s">
-        <v>1023</v>
       </c>
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
@@ -12048,7 +12100,7 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
@@ -12060,13 +12112,13 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C282" t="s">
         <v>1025</v>
       </c>
-      <c r="C282" t="s">
-        <v>1026</v>
-      </c>
       <c r="D282" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
@@ -12078,13 +12130,13 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C283" t="s">
         <v>1027</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>1028</v>
-      </c>
-      <c r="D283" t="s">
-        <v>1029</v>
       </c>
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
@@ -12096,13 +12148,13 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C284" t="s">
         <v>1030</v>
       </c>
-      <c r="C284" t="s">
-        <v>1031</v>
-      </c>
       <c r="D284" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
@@ -12114,13 +12166,13 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C285" t="s">
         <v>1032</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>1033</v>
-      </c>
-      <c r="D285" t="s">
-        <v>1034</v>
       </c>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
@@ -12132,13 +12184,13 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C286" t="s">
         <v>1035</v>
       </c>
-      <c r="C286" t="s">
-        <v>1036</v>
-      </c>
       <c r="D286" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
@@ -12156,7 +12208,7 @@
         <v>472</v>
       </c>
       <c r="D287" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
@@ -12168,13 +12220,13 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C288" t="s">
         <v>1037</v>
       </c>
-      <c r="C288" t="s">
-        <v>1038</v>
-      </c>
       <c r="D288" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
@@ -12186,13 +12238,13 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C289" t="s">
         <v>1039</v>
       </c>
-      <c r="C289" t="s">
-        <v>1040</v>
-      </c>
       <c r="D289" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
@@ -12204,13 +12256,13 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C290" t="s">
         <v>1041</v>
       </c>
-      <c r="C290" t="s">
-        <v>1042</v>
-      </c>
       <c r="D290" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
@@ -12222,13 +12274,13 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C291" t="s">
         <v>1043</v>
       </c>
-      <c r="C291" t="s">
-        <v>1044</v>
-      </c>
       <c r="D291" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
@@ -12240,13 +12292,13 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C292" t="s">
         <v>1045</v>
       </c>
-      <c r="C292" t="s">
-        <v>1046</v>
-      </c>
       <c r="D292" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
@@ -12258,13 +12310,13 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C293" t="s">
         <v>1047</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" t="s">
         <v>1048</v>
-      </c>
-      <c r="D293" t="s">
-        <v>1049</v>
       </c>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
@@ -12276,13 +12328,13 @@
         <v>291</v>
       </c>
       <c r="B294" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C294" t="s">
         <v>1050</v>
       </c>
-      <c r="C294" t="s">
-        <v>1051</v>
-      </c>
       <c r="D294" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
@@ -12294,13 +12346,13 @@
         <v>292</v>
       </c>
       <c r="B295" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C295" t="s">
         <v>1052</v>
       </c>
-      <c r="C295" t="s">
-        <v>1053</v>
-      </c>
       <c r="D295" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
@@ -12312,13 +12364,13 @@
         <v>293</v>
       </c>
       <c r="B296" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C296" t="s">
         <v>1054</v>
       </c>
-      <c r="C296" t="s">
-        <v>1055</v>
-      </c>
       <c r="D296" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
@@ -12330,13 +12382,13 @@
         <v>294</v>
       </c>
       <c r="B297" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C297" t="s">
         <v>1056</v>
       </c>
-      <c r="C297" t="s">
-        <v>1057</v>
-      </c>
       <c r="D297" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
@@ -12348,13 +12400,13 @@
         <v>295</v>
       </c>
       <c r="B298" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C298" t="s">
         <v>1058</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" t="s">
         <v>1059</v>
-      </c>
-      <c r="D298" t="s">
-        <v>1060</v>
       </c>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
@@ -12366,13 +12418,13 @@
         <v>296</v>
       </c>
       <c r="B299" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C299" t="s">
         <v>1061</v>
       </c>
-      <c r="C299" t="s">
-        <v>1062</v>
-      </c>
       <c r="D299" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
@@ -12384,13 +12436,13 @@
         <v>297</v>
       </c>
       <c r="B300" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C300" t="s">
         <v>1063</v>
       </c>
-      <c r="C300" t="s">
-        <v>1064</v>
-      </c>
       <c r="D300" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
@@ -12402,13 +12454,13 @@
         <v>298</v>
       </c>
       <c r="B301" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C301" t="s">
         <v>1065</v>
       </c>
-      <c r="C301" t="s">
-        <v>1066</v>
-      </c>
       <c r="D301" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
@@ -12420,13 +12472,13 @@
         <v>299</v>
       </c>
       <c r="B302" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C302" t="s">
         <v>1067</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>1068</v>
-      </c>
-      <c r="D302" t="s">
-        <v>1069</v>
       </c>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
@@ -12438,13 +12490,13 @@
         <v>300</v>
       </c>
       <c r="B303" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C303" t="s">
         <v>1070</v>
       </c>
-      <c r="C303" t="s">
-        <v>1071</v>
-      </c>
       <c r="D303" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
@@ -12456,13 +12508,13 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C304" t="s">
         <v>1072</v>
       </c>
-      <c r="C304" t="s">
-        <v>1073</v>
-      </c>
       <c r="D304" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
@@ -12474,13 +12526,13 @@
         <v>302</v>
       </c>
       <c r="B305" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C305" t="s">
         <v>1074</v>
       </c>
-      <c r="C305" t="s">
-        <v>1075</v>
-      </c>
       <c r="D305" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
@@ -12492,13 +12544,13 @@
         <v>303</v>
       </c>
       <c r="B306" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C306" t="s">
         <v>1076</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
         <v>1077</v>
-      </c>
-      <c r="D306" t="s">
-        <v>1078</v>
       </c>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
@@ -12510,13 +12562,13 @@
         <v>304</v>
       </c>
       <c r="B307" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C307" t="s">
         <v>1079</v>
       </c>
-      <c r="C307" t="s">
+      <c r="D307" t="s">
         <v>1080</v>
-      </c>
-      <c r="D307" t="s">
-        <v>1081</v>
       </c>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
@@ -12528,13 +12580,13 @@
         <v>305</v>
       </c>
       <c r="B308" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C308" t="s">
         <v>1082</v>
       </c>
-      <c r="C308" t="s">
-        <v>1083</v>
-      </c>
       <c r="D308" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
@@ -12546,13 +12598,13 @@
         <v>306</v>
       </c>
       <c r="B309" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C309" t="s">
         <v>1084</v>
       </c>
-      <c r="C309" t="s">
-        <v>1085</v>
-      </c>
       <c r="D309" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
@@ -12564,13 +12616,13 @@
         <v>307</v>
       </c>
       <c r="B310" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C310" t="s">
         <v>1086</v>
       </c>
-      <c r="C310" t="s">
-        <v>1087</v>
-      </c>
       <c r="D310" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
@@ -12582,13 +12634,13 @@
         <v>308</v>
       </c>
       <c r="B311" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C311" t="s">
         <v>1088</v>
       </c>
-      <c r="C311" t="s">
-        <v>1089</v>
-      </c>
       <c r="D311" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
@@ -12600,13 +12652,13 @@
         <v>309</v>
       </c>
       <c r="B312" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C312" t="s">
         <v>1090</v>
       </c>
-      <c r="C312" t="s">
-        <v>1091</v>
-      </c>
       <c r="D312" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
@@ -12618,13 +12670,13 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C313" t="s">
         <v>1092</v>
       </c>
-      <c r="C313" t="s">
-        <v>1093</v>
-      </c>
       <c r="D313" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
@@ -12636,13 +12688,13 @@
         <v>311</v>
       </c>
       <c r="B314" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C314" t="s">
         <v>1094</v>
       </c>
-      <c r="C314" t="s">
-        <v>1095</v>
-      </c>
       <c r="D314" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
@@ -12654,7 +12706,7 @@
         <v>312</v>
       </c>
       <c r="B315" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
@@ -12666,13 +12718,13 @@
         <v>313</v>
       </c>
       <c r="B316" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C316" t="s">
         <v>1097</v>
       </c>
-      <c r="C316" t="s">
-        <v>1098</v>
-      </c>
       <c r="D316" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
@@ -12684,13 +12736,13 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C317" t="s">
         <v>1099</v>
       </c>
-      <c r="C317" t="s">
-        <v>1100</v>
-      </c>
       <c r="D317" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
@@ -12702,13 +12754,13 @@
         <v>315</v>
       </c>
       <c r="B318" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C318" t="s">
         <v>1101</v>
       </c>
-      <c r="C318" t="s">
-        <v>1102</v>
-      </c>
       <c r="D318" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
@@ -12720,13 +12772,13 @@
         <v>316</v>
       </c>
       <c r="B319" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C319" t="s">
         <v>1103</v>
       </c>
-      <c r="C319" t="s">
-        <v>1104</v>
-      </c>
       <c r="D319" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -12738,13 +12790,13 @@
         <v>317</v>
       </c>
       <c r="B320" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C320" t="s">
         <v>1105</v>
       </c>
-      <c r="C320" t="s">
-        <v>1106</v>
-      </c>
       <c r="D320" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
@@ -12756,13 +12808,13 @@
         <v>318</v>
       </c>
       <c r="B321" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C321" t="s">
         <v>1107</v>
       </c>
-      <c r="C321" t="s">
-        <v>1108</v>
-      </c>
       <c r="D321" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
@@ -12774,13 +12826,13 @@
         <v>319</v>
       </c>
       <c r="B322" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C322" t="s">
         <v>1109</v>
       </c>
-      <c r="C322" t="s">
-        <v>1110</v>
-      </c>
       <c r="D322" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
@@ -12792,13 +12844,13 @@
         <v>320</v>
       </c>
       <c r="B323" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C323" t="s">
         <v>1111</v>
       </c>
-      <c r="C323" t="s">
-        <v>1112</v>
-      </c>
       <c r="D323" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
@@ -12810,13 +12862,13 @@
         <v>321</v>
       </c>
       <c r="B324" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C324" t="s">
         <v>1113</v>
       </c>
-      <c r="C324" t="s">
-        <v>1114</v>
-      </c>
       <c r="D324" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
@@ -12828,13 +12880,13 @@
         <v>322</v>
       </c>
       <c r="B325" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C325" t="s">
         <v>1115</v>
       </c>
-      <c r="C325" t="s">
-        <v>1116</v>
-      </c>
       <c r="D325" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
@@ -12846,7 +12898,7 @@
         <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
@@ -12858,13 +12910,13 @@
         <v>324</v>
       </c>
       <c r="B327" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C327" t="s">
         <v>1118</v>
       </c>
-      <c r="C327" t="s">
-        <v>1119</v>
-      </c>
       <c r="D327" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
@@ -12876,13 +12928,13 @@
         <v>325</v>
       </c>
       <c r="B328" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C328" t="s">
         <v>1120</v>
       </c>
-      <c r="C328" t="s">
-        <v>1121</v>
-      </c>
       <c r="D328" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
@@ -12894,13 +12946,13 @@
         <v>326</v>
       </c>
       <c r="B329" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C329" t="s">
         <v>1122</v>
       </c>
-      <c r="C329" t="s">
-        <v>1123</v>
-      </c>
       <c r="D329" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
@@ -12912,13 +12964,13 @@
         <v>327</v>
       </c>
       <c r="B330" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C330" t="s">
         <v>1124</v>
       </c>
-      <c r="C330" t="s">
-        <v>1125</v>
-      </c>
       <c r="D330" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
@@ -12930,13 +12982,13 @@
         <v>328</v>
       </c>
       <c r="B331" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C331" t="s">
         <v>1126</v>
       </c>
-      <c r="C331" t="s">
-        <v>1127</v>
-      </c>
       <c r="D331" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
@@ -12948,13 +13000,13 @@
         <v>329</v>
       </c>
       <c r="B332" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C332" t="s">
         <v>1128</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>1129</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1130</v>
       </c>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
@@ -12966,13 +13018,13 @@
         <v>330</v>
       </c>
       <c r="B333" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C333" t="s">
         <v>1131</v>
       </c>
-      <c r="C333" t="s">
-        <v>1132</v>
-      </c>
       <c r="D333" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
@@ -12984,13 +13036,13 @@
         <v>331</v>
       </c>
       <c r="B334" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C334" t="s">
         <v>1133</v>
       </c>
-      <c r="C334" t="s">
-        <v>1134</v>
-      </c>
       <c r="D334" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
@@ -13002,13 +13054,13 @@
         <v>332</v>
       </c>
       <c r="B335" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C335" t="s">
         <v>1135</v>
       </c>
-      <c r="C335" t="s">
-        <v>1136</v>
-      </c>
       <c r="D335" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
@@ -13020,13 +13072,13 @@
         <v>333</v>
       </c>
       <c r="B336" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C336" t="s">
         <v>1137</v>
       </c>
-      <c r="C336" t="s">
-        <v>1138</v>
-      </c>
       <c r="D336" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
@@ -13038,13 +13090,13 @@
         <v>334</v>
       </c>
       <c r="B337" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C337" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D337" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
@@ -13056,13 +13108,13 @@
         <v>335</v>
       </c>
       <c r="B338" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C338" t="s">
         <v>1140</v>
       </c>
-      <c r="C338" t="s">
-        <v>1141</v>
-      </c>
       <c r="D338" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
@@ -13074,13 +13126,13 @@
         <v>336</v>
       </c>
       <c r="B339" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C339" t="s">
         <v>1142</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" t="s">
         <v>1143</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1144</v>
       </c>
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
@@ -13092,13 +13144,13 @@
         <v>337</v>
       </c>
       <c r="B340" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C340" t="s">
         <v>1145</v>
       </c>
-      <c r="C340" t="s">
-        <v>1146</v>
-      </c>
       <c r="D340" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
@@ -13110,13 +13162,13 @@
         <v>338</v>
       </c>
       <c r="B341" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C341" t="s">
         <v>1147</v>
       </c>
-      <c r="C341" t="s">
-        <v>1148</v>
-      </c>
       <c r="D341" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
@@ -13128,13 +13180,13 @@
         <v>339</v>
       </c>
       <c r="B342" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C342" t="s">
         <v>1149</v>
       </c>
-      <c r="C342" t="s">
-        <v>1150</v>
-      </c>
       <c r="D342" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
@@ -13146,13 +13198,13 @@
         <v>340</v>
       </c>
       <c r="B343" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C343" t="s">
         <v>1151</v>
       </c>
-      <c r="C343" t="s">
-        <v>1152</v>
-      </c>
       <c r="D343" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
@@ -13164,13 +13216,13 @@
         <v>341</v>
       </c>
       <c r="B344" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C344" t="s">
         <v>1153</v>
       </c>
-      <c r="C344" t="s">
-        <v>1154</v>
-      </c>
       <c r="D344" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
@@ -13182,13 +13234,13 @@
         <v>342</v>
       </c>
       <c r="B345" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C345" t="s">
         <v>1155</v>
       </c>
-      <c r="C345" t="s">
-        <v>1156</v>
-      </c>
       <c r="D345" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
@@ -13200,13 +13252,13 @@
         <v>343</v>
       </c>
       <c r="B346" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C346" t="s">
         <v>1157</v>
       </c>
-      <c r="C346" t="s">
-        <v>1158</v>
-      </c>
       <c r="D346" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
@@ -13218,13 +13270,13 @@
         <v>344</v>
       </c>
       <c r="B347" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C347" t="s">
         <v>1159</v>
       </c>
-      <c r="C347" t="s">
-        <v>1160</v>
-      </c>
       <c r="D347" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
@@ -13236,24 +13288,24 @@
         <v>345</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C348" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D348" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E348">
-        <f>+[23]Main!$I$2</f>
+        <f>+[25]Main!$I$2</f>
         <v>85</v>
       </c>
       <c r="F348" s="4">
-        <f>+[23]Main!$I$4*FX!C10</f>
+        <f>+[25]Main!$I$4*FX!C10</f>
         <v>302.45397000000003</v>
       </c>
       <c r="G348" s="4">
-        <f>+([23]Main!$I$6-[23]Main!$I$5)*FX!C10</f>
+        <f>+([25]Main!$I$6-[25]Main!$I$5)*FX!C10</f>
         <v>86.644348000000022</v>
       </c>
       <c r="H348" s="4">
@@ -13425,6 +13477,7 @@
     <hyperlink ref="B40" r:id="rId22" xr:uid="{943F80B6-F72B-4E85-AA19-F202B8F5955F}"/>
     <hyperlink ref="B15" r:id="rId23" xr:uid="{018A53B6-FF7F-40C5-8DBC-8AF6CEADEA65}"/>
     <hyperlink ref="B16" r:id="rId24" xr:uid="{4D5587CE-95E4-41FD-91DC-7D5D63A25FEB}"/>
+    <hyperlink ref="B39" r:id="rId25" xr:uid="{10AE8582-E9CB-402A-BE65-0D0ABE3F637D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13507,15 +13560,15 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <f>+[24]Main!$I$2</f>
+        <f>+[26]Main!$I$2</f>
         <v>71.89</v>
       </c>
       <c r="F4" s="4">
-        <f>+[24]Main!$I$4</f>
+        <f>+[26]Main!$I$4</f>
         <v>309198.91839655</v>
       </c>
       <c r="G4" s="4">
-        <f>+[24]Main!$I$6-[24]Main!$I$5</f>
+        <f>+[26]Main!$I$6-[26]Main!$I$5</f>
         <v>28452</v>
       </c>
       <c r="H4" s="4">
@@ -13623,15 +13676,15 @@
         <v>27</v>
       </c>
       <c r="E9">
-        <f>+[25]Main!$J$2</f>
+        <f>+[27]Main!$J$2</f>
         <v>97.02</v>
       </c>
       <c r="F9" s="4">
-        <f>+[25]Main!$J$4</f>
+        <f>+[27]Main!$J$4</f>
         <v>110205.01800000001</v>
       </c>
       <c r="G9" s="4">
-        <f>+[25]Main!$J$6-[25]Main!$J$5</f>
+        <f>+[27]Main!$J$6-[27]Main!$J$5</f>
         <v>11604.2</v>
       </c>
       <c r="H9" s="4">
@@ -15781,8 +15834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FA7BB8-7A2E-4B85-93E6-DA813B931E82}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15873,7 +15926,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="18">
         <f>SUM(F5:F23)</f>
-        <v>630175.88637860853</v>
+        <v>653721.65659828857</v>
       </c>
       <c r="G4" s="18">
         <f>SUM(G5:G23)</f>
@@ -15881,7 +15934,7 @@
       </c>
       <c r="H4" s="18">
         <f>SUM(H5:H23)</f>
-        <v>720570.5172566087</v>
+        <v>744116.28747628862</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -15918,20 +15971,20 @@
         <v>27</v>
       </c>
       <c r="E5" s="16">
-        <f>+[26]Main!$K$3</f>
-        <v>168.82</v>
+        <f>+[28]Main!$K$3</f>
+        <v>170.9</v>
       </c>
       <c r="F5" s="4">
-        <f>+[26]Main!$K$5</f>
-        <v>262490.99604921998</v>
+        <f>+[28]Main!$K$5</f>
+        <v>265725.09906889999</v>
       </c>
       <c r="G5" s="4">
-        <f>+[26]Main!$K$7-[26]Main!$K$6</f>
+        <f>+[28]Main!$K$7-[28]Main!$K$6</f>
         <v>41479</v>
       </c>
       <c r="H5" s="4">
         <f>+F5+G5</f>
-        <v>303969.99604921998</v>
+        <v>307204.09906889999</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>491</v>
@@ -15979,15 +16032,15 @@
         <v>27</v>
       </c>
       <c r="E6" s="16">
-        <f>+[27]Main!$M$3</f>
+        <f>+[29]Main!$M$3</f>
         <v>58.4</v>
       </c>
       <c r="F6" s="4">
-        <f>+[27]Main!$M$5</f>
+        <f>+[29]Main!$M$5</f>
         <v>98371.986171199998</v>
       </c>
       <c r="G6" s="4">
-        <f>+[27]Main!$M$7-[27]Main!$M$6</f>
+        <f>+[29]Main!$M$7-[29]Main!$M$6</f>
         <v>21333</v>
       </c>
       <c r="H6" s="4">
@@ -16040,26 +16093,26 @@
         <v>31</v>
       </c>
       <c r="E7" s="16">
-        <f>+[28]Main!$H$2</f>
+        <f>+[30]Main!$H$2</f>
         <v>38.49</v>
       </c>
       <c r="F7" s="4">
-        <f>+[28]Main!$H$5*FX!C3</f>
-        <v>93986.9568</v>
+        <f>+[30]Main!$H$5*FX!C3</f>
+        <v>114298.62400000001</v>
       </c>
       <c r="G7" s="4">
-        <f>+([27]Main!$M$7-[27]Main!$M$6)*FX!C3</f>
+        <f>+([29]Main!$M$7-[29]Main!$M$6)*FX!C3</f>
         <v>27306.240000000002</v>
       </c>
       <c r="H7" s="4">
         <f>F7+G7</f>
-        <v>121293.19680000001</v>
+        <v>141604.864</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>731</v>
+        <v>1168</v>
       </c>
       <c r="J7" s="9">
-        <v>45832</v>
+        <v>46065</v>
       </c>
       <c r="K7" s="16">
         <f>25592.8810095771*C31</f>
@@ -16087,24 +16140,24 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C8" t="s">
         <v>732</v>
-      </c>
-      <c r="C8" t="s">
-        <v>733</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="16">
-        <f>+[29]Main!$H$2</f>
+        <f>+[31]Main!$H$2</f>
         <v>485.4</v>
       </c>
       <c r="F8" s="4">
-        <f>+[29]Main!$H$4*FX!C4</f>
+        <f>+[31]Main!$H$4*FX!C4</f>
         <v>72888.393927045603</v>
       </c>
       <c r="G8" s="4">
-        <f>+([29]Main!$H$6-[29]Main!$H$5)*FX!C4</f>
+        <f>+([31]Main!$H$6-[31]Main!$H$5)*FX!C4</f>
         <v>-228.87708000000006</v>
       </c>
       <c r="H8" s="4">
@@ -16123,7 +16176,7 @@
         <v>1910</v>
       </c>
       <c r="R8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -16132,24 +16185,24 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C9" t="s">
         <v>735</v>
-      </c>
-      <c r="C9" t="s">
-        <v>736</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
       </c>
       <c r="E9" s="4">
-        <f>+[30]Main!$J$2</f>
+        <f>+[32]Main!$J$2</f>
         <v>4080</v>
       </c>
       <c r="F9" s="4">
-        <f>+[30]Main!$J$4*FX!C5</f>
+        <f>+[32]Main!$J$4*FX!C5</f>
         <v>49263.210449311024</v>
       </c>
       <c r="G9" s="4">
-        <f>+([30]Main!$J$6-[30]Main!$J$5)*FX!C5</f>
+        <f>+([32]Main!$J$6-[32]Main!$J$5)*FX!C5</f>
         <v>874.26239999999996</v>
       </c>
       <c r="H9" s="4">
@@ -16182,24 +16235,24 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C10" t="s">
         <v>737</v>
-      </c>
-      <c r="C10" t="s">
-        <v>738</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="16">
-        <f>+[31]Main!$I$2</f>
+        <f>+[33]Main!$I$2</f>
         <v>25.6</v>
       </c>
       <c r="F10" s="4">
-        <f>+([31]Main!$I$4)*FX!C3</f>
+        <f>+([33]Main!$I$4)*FX!C3</f>
         <v>28475.392000000003</v>
       </c>
       <c r="G10" s="4">
-        <f>+([31]Main!$I$6-[31]Main!$I$5)*FX!C3</f>
+        <f>+([33]Main!$I$6-[33]Main!$I$5)*FX!C3</f>
         <v>9880.32</v>
       </c>
       <c r="H10" s="4">
@@ -16207,7 +16260,7 @@
         <v>38355.712</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J10" s="9">
         <v>45615</v>
@@ -16226,24 +16279,24 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>740</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>741</v>
       </c>
       <c r="D11" t="s">
         <v>617</v>
       </c>
       <c r="E11" s="4">
-        <f>+[32]Main!$I$2</f>
+        <f>+[34]Main!$I$2</f>
         <v>107400</v>
       </c>
       <c r="F11" s="4">
-        <f>+[32]Main!$I$4*FX!C6</f>
+        <f>+[34]Main!$I$4*FX!C6</f>
         <v>9270.9964935000007</v>
       </c>
       <c r="G11" s="4">
-        <f>+([32]Main!$I$6-[32]Main!$I$5)*FX!C6</f>
+        <f>+([34]Main!$I$6-[34]Main!$I$5)*FX!C6</f>
         <v>-575.42399999999998</v>
       </c>
       <c r="H11" s="4">
@@ -16268,24 +16321,24 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C12" t="s">
         <v>742</v>
-      </c>
-      <c r="C12" t="s">
-        <v>743</v>
       </c>
       <c r="D12" t="s">
         <v>240</v>
       </c>
       <c r="E12" s="4">
-        <f>+[33]Main!$I$2</f>
+        <f>+[35]Main!$I$2</f>
         <v>590</v>
       </c>
       <c r="F12" s="4">
-        <f>+[33]Main!$I$4*FX!C7</f>
+        <f>+[35]Main!$I$4*FX!C7</f>
         <v>4254.915253002001</v>
       </c>
       <c r="G12" s="4">
-        <f>+([33]Main!$I$6-[33]Main!$I$5)*FX!C7</f>
+        <f>+([35]Main!$I$6-[35]Main!$I$5)*FX!C7</f>
         <v>-162.340056</v>
       </c>
       <c r="H12" s="4">
@@ -16305,10 +16358,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>743</v>
+      </c>
+      <c r="C13" t="s">
         <v>744</v>
-      </c>
-      <c r="C13" t="s">
-        <v>745</v>
       </c>
       <c r="D13" t="s">
         <v>58</v>
@@ -16330,10 +16383,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C14" t="s">
         <v>746</v>
-      </c>
-      <c r="C14" t="s">
-        <v>747</v>
       </c>
       <c r="D14" t="s">
         <v>240</v>
@@ -16355,13 +16408,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>747</v>
+      </c>
+      <c r="C15" t="s">
         <v>748</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>749</v>
-      </c>
-      <c r="D15" t="s">
-        <v>750</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="4">
@@ -16380,10 +16433,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>750</v>
+      </c>
+      <c r="C16" t="s">
         <v>751</v>
-      </c>
-      <c r="C16" t="s">
-        <v>752</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -16405,10 +16458,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>752</v>
+      </c>
+      <c r="C17" t="s">
         <v>753</v>
-      </c>
-      <c r="C17" t="s">
-        <v>754</v>
       </c>
       <c r="D17" t="s">
         <v>527</v>
@@ -16430,13 +16483,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
+        <v>754</v>
+      </c>
+      <c r="C18" t="s">
         <v>755</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>756</v>
-      </c>
-      <c r="D18" t="s">
-        <v>757</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="4">
@@ -16455,24 +16508,24 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C19" t="s">
         <v>758</v>
-      </c>
-      <c r="C19" t="s">
-        <v>759</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="16">
-        <f>+[34]Main!$I$3</f>
+        <f>+[36]Main!$I$3</f>
         <v>69.63</v>
       </c>
       <c r="F19" s="4">
-        <f>+[34]Main!$I$5</f>
+        <f>+[36]Main!$I$5</f>
         <v>1232.2425974099999</v>
       </c>
       <c r="G19" s="4">
-        <f>+[34]Main!$I$7-[34]Main!$I$6</f>
+        <f>+[36]Main!$I$7-[36]Main!$I$6</f>
         <v>214.72500000000002</v>
       </c>
       <c r="H19" s="4">
@@ -16497,24 +16550,24 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C20" t="s">
         <v>760</v>
-      </c>
-      <c r="C20" t="s">
-        <v>761</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="16">
-        <f>+[35]Main!$I$2</f>
+        <f>+[37]Main!$I$2</f>
         <v>4.3600000000000003</v>
       </c>
       <c r="F20" s="4">
-        <f>+[35]Main!$I$4</f>
+        <f>+[37]Main!$I$4</f>
         <v>248.91663792000003</v>
       </c>
       <c r="G20" s="4">
-        <f>+[35]Main!$I$6-[35]Main!$I$5</f>
+        <f>+[37]Main!$I$6-[37]Main!$I$5</f>
         <v>-34.395385999999995</v>
       </c>
       <c r="H20" s="4">
@@ -16539,10 +16592,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
+        <v>761</v>
+      </c>
+      <c r="C21" t="s">
         <v>762</v>
-      </c>
-      <c r="C21" t="s">
-        <v>763</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -16564,10 +16617,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
+        <v>763</v>
+      </c>
+      <c r="C22" t="s">
         <v>764</v>
-      </c>
-      <c r="C22" t="s">
-        <v>765</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -16589,10 +16642,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
+        <v>765</v>
+      </c>
+      <c r="C23" t="s">
         <v>766</v>
-      </c>
-      <c r="C23" t="s">
-        <v>767</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -16612,16 +16665,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C24" t="s">
         <v>768</v>
-      </c>
-      <c r="C24" t="s">
-        <v>769</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -16632,7 +16685,7 @@
         <v>1988</v>
       </c>
       <c r="R24" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -16647,7 +16700,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -16657,12 +16710,12 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J27" s="9"/>
       <c r="N27" s="16"/>
       <c r="R27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -16706,7 +16759,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C3" s="17">
         <v>1.28</v>
@@ -16714,7 +16767,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C4" s="17">
         <v>1.2E-2</v>
@@ -16722,7 +16775,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C5" s="17">
         <v>6.7999999999999996E-3</v>
@@ -16730,7 +16783,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C6" s="17">
         <v>7.5000000000000002E-4</v>
@@ -16738,7 +16791,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C7" s="17">
         <v>6.2000000000000003E-5</v>
@@ -16746,7 +16799,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C8" s="17">
         <v>1.1399999999999999</v>
@@ -16754,7 +16807,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C9" s="17">
         <v>1.23</v>
@@ -16762,7 +16815,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C10" s="17">
         <v>9.8000000000000004E-2</v>

--- a/ConsumerGoods.xlsx
+++ b/ConsumerGoods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC89ED64-CD7D-43EB-9555-86E31CDBE37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10A4896-A30A-4147-8E60-4456D1FFEE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" activeTab="3" xr2:uid="{C5F9E374-3D8E-42B5-B067-E68CE63456D2}"/>
+    <workbookView xWindow="225" yWindow="3900" windowWidth="38175" windowHeight="15240" xr2:uid="{C5F9E374-3D8E-42B5-B067-E68CE63456D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4779,10 +4779,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5608,7 +5608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09C72A0-D782-4A63-8648-4453DC8E440D}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -15834,7 +15834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FA7BB8-7A2E-4B85-93E6-DA813B931E82}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
